--- a/Chart Data/BedNum.xlsx
+++ b/Chart Data/BedNum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\IAT814_VA\Final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\Chart Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF2C308-CB83-4E0E-A8B8-8F4F4EBCBBC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B571C6-0A9D-484B-B1B7-6252180ADA14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09CCE6FD-5F0E-42E6-AAE9-E271D442D52F}"/>
   </bookViews>
@@ -449,6 +449,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
